--- a/tests/data/common species.xlsx
+++ b/tests/data/common species.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/msi/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{716E495C-1D40-EB4F-B4E5-385CC6083EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CC4B3-DA9C-0849-9EC5-80B0F59EC6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="2080" windowWidth="26040" windowHeight="14940" xr2:uid="{82B23897-C4B1-6444-AFCE-BBDEB95A07E1}"/>
+    <workbookView xWindow="17720" yWindow="660" windowWidth="16480" windowHeight="13260" xr2:uid="{82B23897-C4B1-6444-AFCE-BBDEB95A07E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,39 @@
   </si>
   <si>
     <t>N2</t>
+  </si>
+  <si>
+    <t>spc</t>
+  </si>
+  <si>
+    <t>this column is here so I can copy paste easily</t>
+  </si>
+  <si>
+    <t>N#N</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>[H][H]</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>[N]=O</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>N(=O)[O]</t>
   </si>
 </sst>
 </file>
@@ -459,173 +492,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704339FD-2BCA-C244-AA3F-70536EA1C429}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/common species.xlsx
+++ b/tests/data/common species.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CC4B3-DA9C-0849-9EC5-80B0F59EC6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F88F7D3-9855-B240-A1BD-BF893AF2F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="660" windowWidth="16480" windowHeight="13260" xr2:uid="{82B23897-C4B1-6444-AFCE-BBDEB95A07E1}"/>
+    <workbookView xWindow="47460" yWindow="3240" windowWidth="20320" windowHeight="15260" xr2:uid="{82B23897-C4B1-6444-AFCE-BBDEB95A07E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -127,13 +128,97 @@
   </si>
   <si>
     <t>N(=O)[O]</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>[C]=O</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>[He]</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>C2H4</t>
+  </si>
+  <si>
+    <t>CH2O</t>
+  </si>
+  <si>
+    <t>C2H6</t>
+  </si>
+  <si>
+    <t>CH3OH</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>C#C</t>
+  </si>
+  <si>
+    <t>C=C</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>C=O</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>CH3CHO</t>
+  </si>
+  <si>
+    <t>CC=O</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>O=C=O</t>
+  </si>
+  <si>
+    <t>CH2O2</t>
+  </si>
+  <si>
+    <t>formic acid</t>
+  </si>
+  <si>
+    <t>acetaldehyde</t>
+  </si>
+  <si>
+    <t>C(=O)O</t>
+  </si>
+  <si>
+    <t>HCOOCH3</t>
+  </si>
+  <si>
+    <t>O=COC</t>
+  </si>
+  <si>
+    <t>methyl formate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +229,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -178,6 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,18 +585,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704339FD-2BCA-C244-AA3F-70536EA1C429}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -522,8 +616,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -543,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -563,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -583,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -603,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -623,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -643,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -663,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -683,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -703,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -723,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -743,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -763,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -781,6 +878,275 @@
       </c>
       <c r="F14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/common species.xlsx
+++ b/tests/data/common species.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F88F7D3-9855-B240-A1BD-BF893AF2F0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160948EF-A44B-DB42-B9A1-668438B5FB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47460" yWindow="3240" windowWidth="20320" windowHeight="15260" xr2:uid="{82B23897-C4B1-6444-AFCE-BBDEB95A07E1}"/>
+    <workbookView xWindow="43280" yWindow="12760" windowWidth="20320" windowHeight="15260" xr2:uid="{82B23897-C4B1-6444-AFCE-BBDEB95A07E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>methyl formate</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>[Cl]</t>
+  </si>
+  <si>
+    <t>Cl2</t>
+  </si>
+  <si>
+    <t>ClCl</t>
   </si>
 </sst>
 </file>
@@ -585,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704339FD-2BCA-C244-AA3F-70536EA1C429}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,6 +1161,46 @@
         <v>58</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
